--- a/medicine/Enfance/Roland_Smith/Roland_Smith.xlsx
+++ b/medicine/Enfance/Roland_Smith/Roland_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland Smith, né le 30 novembre 1951 à Portland dans l'Oregon, est un romancier américain de littérature d'enfance et de jeunesse.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,40 +553,320 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Jacob Lansa
-La Caverne des éléphants, Flammarion, coll. « Castor Poche » no 677, 1998 ((en) Thunder Cave, 1997)  (ISBN 2-08-164217-4)
+          <t>Série Jacob Lansa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Caverne des éléphants, Flammarion, coll. « Castor Poche » no 677, 1998 ((en) Thunder Cave, 1997)  (ISBN 2-08-164217-4)
 Jaguars, Flammarion, coll. « Castor Poche » no 713, 1999 ((en) Jaguar, 1999)  (ISBN 2-08-164377-4)
-Le Dernier Loup, Flammarion, coll. « Castor Poche » no 793, 2000 ((en) The Last Lobo, 2001)  (ISBN 2-08-164765-6)
-Série Jack Osborne
-Disparition programmée, Flammarion, coll. « Tribal », 2003 ((en) Zach's Lie, 2003)  (ISBN 2-08-160283-0)
-Témoins en danger, Flammarion, coll. « Tribal », 2005 ((en) Jack's Run, 2005)  (ISBN 2-08-163388-4)
-Série O'Hara
-(en) Cryptid Hunters, 2005
+Le Dernier Loup, Flammarion, coll. « Castor Poche » no 793, 2000 ((en) The Last Lobo, 2001)  (ISBN 2-08-164765-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roland_Smith</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Smith</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Jack Osborne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Disparition programmée, Flammarion, coll. « Tribal », 2003 ((en) Zach's Lie, 2003)  (ISBN 2-08-160283-0)
+Témoins en danger, Flammarion, coll. « Tribal », 2005 ((en) Jack's Run, 2005)  (ISBN 2-08-163388-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roland_Smith</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Smith</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série O'Hara</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Cryptid Hunters, 2005
 (en) Tentacles, 2009
 (en) Chupacabra, 2013
-(en) Mutation, 2014
-Série Peak Marcello
-Pic, Flammarion, coll. « Karactère(s) », 2008 ((en) Peak, 2007)  (ISBN 978-2-02-097987-0)
-(en) The Edge, 2015
-Série I, Q
-(en) Independence Hall, 2008
+(en) Mutation, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roland_Smith</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Smith</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Peak Marcello</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pic, Flammarion, coll. « Karactère(s) », 2008 ((en) Peak, 2007)  (ISBN 978-2-02-097987-0)
+(en) The Edge, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roland_Smith</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Smith</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série I, Q</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Independence Hall, 2008
 (en) The White House, 2010
 (en) Kitty Hawk, 2012
 (en) The Alamo, 2013Coécrit avec Michael P. Spradlin.
 (en) The Windy City, 2014Coécrit avec Michael P. Spradlin.
-(en) Alcatraz, 2014Coécrit avec Michael P. Spradlin.
-Série Storm Runners
-(en) Storm Runners, 2010
+(en) Alcatraz, 2014Coécrit avec Michael P. Spradlin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roland_Smith</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Smith</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Storm Runners</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Storm Runners, 2010
 (en) The Surge, 2011
-(en) Eruption, 2012
-Univers Les 39 Clés
-Série Cahill contre Vesper
- Frayeurs à Tombouctou, Bayard Jeunesse, 2015 ((en) Shatterproof, 2012)
-Série Beneath
-(en) Beneath, 2015
-(en) Above, 2016
-Romans indépendants
-Expédition Yéti, Flammarion, coll. « Castor Poche » no 857, 2002 ((en) Sasquatch, 1998)  (ISBN 2-08-164532-7)
+(en) Eruption, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roland_Smith</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Smith</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Cahill contre Vesper</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Frayeurs à Tombouctou, Bayard Jeunesse, 2015 ((en) Shatterproof, 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roland_Smith</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Smith</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Beneath</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) Beneath, 2015
+(en) Above, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roland_Smith</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Smith</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Expédition Yéti, Flammarion, coll. « Castor Poche » no 857, 2002 ((en) Sasquatch, 1998)  (ISBN 2-08-164532-7)
 (en) Elephant Ru, 2007
 (en) The Captain's Dog: My Journey with the Lewis and Clark Tribe, 2008
 (en) Legwork, 2011
